--- a/Program/TestPlan-Template-EN.xlsx
+++ b/Program/TestPlan-Template-EN.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="146">
   <si>
     <t xml:space="preserve">
 &lt;All notations inside the angle bracket are not part of this document, for its purpose is for extra instruction. When using this document, please erase all these notations and/or replace them with corresponding content as instructed&gt;
@@ -912,7 +912,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1086,6 +1086,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1151,6 +1157,165 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1170,168 +1335,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1373,7 +1376,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB0CAAE-6D8F-4FDF-B172-26B9EADF5E58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEB0CAAE-6D8F-4FDF-B172-26B9EADF5E58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1484,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C536DD0-7BAB-40E6-A5C3-45D9E6A2ED9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C536DD0-7BAB-40E6-A5C3-45D9E6A2ED9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1574,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F69E6F-F1A6-473A-937C-A2D824E5B55E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86F69E6F-F1A6-473A-937C-A2D824E5B55E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1694,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A9E3E3-D680-4F36-A0B2-EEB13AE00DC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62A9E3E3-D680-4F36-A0B2-EEB13AE00DC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1778,7 +1781,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E636BB01-DB79-47CB-B7E7-83E987911F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E636BB01-DB79-47CB-B7E7-83E987911F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2151,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2184,176 +2187,176 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2458,116 +2461,116 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
     </row>
     <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="43"/>
@@ -2585,117 +2588,117 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="1:9" ht="13.95" customHeight="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:9" ht="17.399999999999999" customHeight="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
       <c r="I20" s="45"/>
     </row>
     <row r="21" spans="1:9" ht="18.600000000000001" customHeight="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:9" ht="13.8" hidden="1" customHeight="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:9" ht="13.8" hidden="1" customHeight="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:9" ht="13.8" hidden="1" customHeight="1">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="1:9" ht="13.8" hidden="1" customHeight="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:9" hidden="1">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="44"/>
@@ -2729,66 +2732,66 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="13.95" customHeight="1">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:9" ht="13.95" customHeight="1">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
     </row>
     <row r="32" spans="1:9" ht="13.95" customHeight="1">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
     </row>
     <row r="34" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
     </row>
     <row r="36" spans="1:8" ht="13.95" customHeight="1">
       <c r="A36" s="1"/>
@@ -2813,156 +2816,156 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="66"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
     </row>
     <row r="41" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="66"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="66"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="66"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="66"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="66"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="66"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="66"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="66"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="66"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3002,96 +3005,96 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
     </row>
     <row r="13" spans="1:8" ht="17.399999999999999">
       <c r="A13" s="5" t="s">
@@ -3104,56 +3107,56 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
     </row>
     <row r="18" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="1:8" ht="13.95" customHeight="1">
       <c r="A20" s="8"/>
@@ -3178,136 +3181,136 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
     </row>
     <row r="23" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
     </row>
     <row r="24" spans="1:8" ht="13.95" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
     </row>
     <row r="27" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
@@ -3322,46 +3325,46 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
     </row>
     <row r="39" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2"/>
@@ -3512,216 +3515,216 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3766,11 +3769,11 @@
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="41.4" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="34" t="s">
         <v>30</v>
       </c>
@@ -4020,15 +4023,15 @@
       <c r="B19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="77" t="s">
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="79"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="15" t="s">
@@ -4037,15 +4040,15 @@
       <c r="B20" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75" t="s">
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="76"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="20"/>
@@ -4067,11 +4070,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="41.4" customHeight="1">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="34" t="s">
         <v>55</v>
       </c>
@@ -4257,15 +4260,15 @@
       <c r="B35" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="77" t="s">
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="79"/>
+      <c r="G35" s="81"/>
     </row>
     <row r="36" spans="1:7" ht="28.95" customHeight="1">
       <c r="A36" s="15" t="s">
@@ -4274,15 +4277,15 @@
       <c r="B36" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75" t="s">
+      <c r="D36" s="75"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="76"/>
+      <c r="G36" s="78"/>
     </row>
     <row r="37" spans="1:7" ht="19.2" customHeight="1">
       <c r="A37" s="20"/>
@@ -4316,8 +4319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A107" zoomScale="98" zoomScaleNormal="85" zoomScalePageLayoutView="98" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64:I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -4341,41 +4344,41 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.95" customHeight="1">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="118" t="s">
+      <c r="E3" s="103"/>
+      <c r="F3" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="124" t="s">
+      <c r="E4" s="103"/>
+      <c r="F4" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="124"/>
+      <c r="G4" s="104"/>
       <c r="H4" s="27" t="s">
         <v>72</v>
       </c>
@@ -4397,10 +4400,10 @@
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="92"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="25" t="s">
         <v>75</v>
       </c>
@@ -4425,21 +4428,21 @@
       <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="13.95" customHeight="1">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95">
+      <c r="E8" s="101"/>
+      <c r="F8" s="102">
         <v>44846</v>
       </c>
-      <c r="G8" s="95"/>
+      <c r="G8" s="102"/>
       <c r="H8" s="27" t="s">
         <v>80</v>
       </c>
@@ -4462,33 +4465,33 @@
       <c r="A10" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:10" ht="13.95" customHeight="1">
       <c r="A11" s="31">
         <v>1</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="108"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="13.95" customHeight="1">
       <c r="A12" s="31">
         <v>2</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="108"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="26"/>
@@ -4506,15 +4509,15 @@
       <c r="A14" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="139" t="s">
+      <c r="C14" s="124"/>
+      <c r="D14" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="141"/>
-      <c r="F14" s="140"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="124"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
@@ -4524,15 +4527,15 @@
       <c r="A15" s="31">
         <v>1</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="107" t="s">
+      <c r="C15" s="93"/>
+      <c r="D15" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="108"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -4542,15 +4545,15 @@
       <c r="A16" s="31">
         <v>2</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="98" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="100"/>
-      <c r="F16" s="99"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -4560,13 +4563,13 @@
       <c r="A17" s="31">
         <v>3</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
@@ -4576,15 +4579,15 @@
       <c r="A18" s="31">
         <v>4</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="107" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="109"/>
-      <c r="F18" s="108"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -4592,21 +4595,21 @@
     </row>
     <row r="19" spans="1:10" ht="14.4" customHeight="1">
       <c r="A19" s="33"/>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="121"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="48" t="s">
         <v>117</v>
       </c>
@@ -4622,102 +4625,102 @@
       <c r="C21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="13.95" customHeight="1">
-      <c r="A22" s="125" t="s">
+      <c r="A22" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="127" t="s">
+      <c r="C22" s="96"/>
+      <c r="D22" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="131" t="s">
+      <c r="E22" s="108"/>
+      <c r="F22" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="132"/>
-      <c r="H22" s="110" t="s">
+      <c r="G22" s="115"/>
+      <c r="H22" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="96"/>
     </row>
     <row r="23" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A23" s="126"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="115"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" ht="28.2" customHeight="1">
       <c r="A24" s="31">
         <v>1</v>
       </c>
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="107" t="s">
+      <c r="C24" s="93"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="108"/>
-      <c r="H24" s="107" t="s">
+      <c r="G24" s="93"/>
+      <c r="H24" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="109"/>
-      <c r="J24" s="108"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="93"/>
     </row>
     <row r="25" spans="1:10" ht="28.2" customHeight="1">
       <c r="A25" s="31">
         <v>2</v>
       </c>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="107" t="s">
+      <c r="C25" s="93"/>
+      <c r="D25" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="108"/>
-      <c r="F25" s="107" t="s">
+      <c r="E25" s="93"/>
+      <c r="F25" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="108"/>
-      <c r="H25" s="107" t="s">
+      <c r="G25" s="93"/>
+      <c r="H25" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="109"/>
-      <c r="J25" s="108"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="93"/>
     </row>
     <row r="26" spans="1:10" ht="48.6" customHeight="1">
       <c r="A26" s="31">
         <v>3</v>
       </c>
-      <c r="B26" s="107" t="s">
+      <c r="B26" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="107" t="s">
+      <c r="C26" s="93"/>
+      <c r="D26" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="108"/>
-      <c r="F26" s="107" t="s">
+      <c r="E26" s="93"/>
+      <c r="F26" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="108"/>
-      <c r="H26" s="107" t="s">
+      <c r="G26" s="93"/>
+      <c r="H26" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="109"/>
-      <c r="J26" s="108"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="93"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="24" t="s">
@@ -4725,37 +4728,37 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="116"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="116" t="s">
+      <c r="D31" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="116"/>
-      <c r="F31" s="118" t="s">
+      <c r="E31" s="103"/>
+      <c r="F31" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
       <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="116" t="s">
+      <c r="A32" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="116"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="116" t="s">
+      <c r="D32" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="116"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
       <c r="H32" s="27" t="s">
         <v>72</v>
       </c>
@@ -4775,10 +4778,10 @@
       <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="92"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="25"/>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
@@ -4801,21 +4804,23 @@
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="94"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="26"/>
-      <c r="D36" s="94" t="s">
+      <c r="D36" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
       <c r="H36" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="26"/>
+      <c r="I36" s="63" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="29"/>
@@ -4830,23 +4835,23 @@
       <c r="A38" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="136" t="s">
+      <c r="B38" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="138"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="113"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="31">
         <v>1</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="108"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="93"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="26"/>
@@ -4864,15 +4869,15 @@
       <c r="A41" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="139" t="s">
+      <c r="B41" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="140"/>
-      <c r="D41" s="139" t="s">
+      <c r="C41" s="124"/>
+      <c r="D41" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="141"/>
-      <c r="F41" s="140"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="124"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
@@ -4882,15 +4887,15 @@
       <c r="A42" s="55">
         <v>1</v>
       </c>
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="103"/>
-      <c r="D42" s="101" t="s">
+      <c r="C42" s="131"/>
+      <c r="D42" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="102"/>
-      <c r="F42" s="103"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="131"/>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
@@ -4900,15 +4905,15 @@
       <c r="A43" s="55">
         <v>2</v>
       </c>
-      <c r="B43" s="101" t="s">
+      <c r="B43" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="103"/>
-      <c r="D43" s="101" t="s">
+      <c r="C43" s="131"/>
+      <c r="D43" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="102"/>
-      <c r="F43" s="103"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="131"/>
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
@@ -4918,15 +4923,15 @@
       <c r="A44" s="55">
         <v>3</v>
       </c>
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="101">
+      <c r="C44" s="131"/>
+      <c r="D44" s="129">
         <v>12345</v>
       </c>
-      <c r="E44" s="102"/>
-      <c r="F44" s="103"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="131"/>
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>
@@ -4936,15 +4941,15 @@
       <c r="A45" s="55">
         <v>4</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="103"/>
-      <c r="D45" s="101" t="s">
+      <c r="C45" s="131"/>
+      <c r="D45" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="102"/>
-      <c r="F45" s="103"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="131"/>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
@@ -4954,15 +4959,15 @@
       <c r="A46" s="59">
         <v>5</v>
       </c>
-      <c r="B46" s="101" t="s">
+      <c r="B46" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="103"/>
-      <c r="D46" s="101" t="s">
+      <c r="C46" s="131"/>
+      <c r="D46" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="102"/>
-      <c r="F46" s="103"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="131"/>
       <c r="G46" s="54"/>
       <c r="H46" s="54"/>
       <c r="I46" s="54"/>
@@ -4972,15 +4977,15 @@
       <c r="A47" s="55">
         <v>6</v>
       </c>
-      <c r="B47" s="101" t="s">
+      <c r="B47" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="103"/>
-      <c r="D47" s="101" t="s">
+      <c r="C47" s="131"/>
+      <c r="D47" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="102"/>
-      <c r="F47" s="103"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="131"/>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
       <c r="I47" s="47"/>
@@ -4988,21 +4993,21 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="56"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="121"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -5016,102 +5021,102 @@
       <c r="C50" s="33"/>
     </row>
     <row r="51" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A51" s="125" t="s">
+      <c r="A51" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="112"/>
-      <c r="D51" s="127" t="s">
+      <c r="C51" s="96"/>
+      <c r="D51" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="128"/>
-      <c r="F51" s="131" t="s">
+      <c r="E51" s="108"/>
+      <c r="F51" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="132"/>
-      <c r="H51" s="110" t="s">
+      <c r="G51" s="115"/>
+      <c r="H51" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="I51" s="111"/>
-      <c r="J51" s="112"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="96"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="126"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="115"/>
+      <c r="A52" s="106"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="99"/>
     </row>
     <row r="53" spans="1:10" ht="36" customHeight="1">
       <c r="A53" s="31">
         <v>1</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="108"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="107" t="s">
+      <c r="C53" s="93"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="G53" s="108"/>
-      <c r="H53" s="107" t="s">
+      <c r="G53" s="93"/>
+      <c r="H53" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="I53" s="109"/>
-      <c r="J53" s="108"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="33.6" customHeight="1">
       <c r="A54" s="31">
         <v>2</v>
       </c>
-      <c r="B54" s="107" t="s">
+      <c r="B54" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="108"/>
-      <c r="D54" s="107" t="s">
+      <c r="C54" s="93"/>
+      <c r="D54" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="108"/>
-      <c r="F54" s="107" t="s">
+      <c r="E54" s="93"/>
+      <c r="F54" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="G54" s="108"/>
-      <c r="H54" s="104" t="s">
+      <c r="G54" s="93"/>
+      <c r="H54" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="I54" s="105"/>
-      <c r="J54" s="106"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="89"/>
     </row>
     <row r="55" spans="1:10" ht="31.2" customHeight="1">
       <c r="A55" s="31">
         <v>3</v>
       </c>
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="84"/>
-      <c r="D55" s="83" t="s">
+      <c r="C55" s="86"/>
+      <c r="D55" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83" t="s">
+      <c r="E55" s="85"/>
+      <c r="F55" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="G55" s="83"/>
-      <c r="H55" s="104" t="s">
+      <c r="G55" s="85"/>
+      <c r="H55" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="I55" s="105"/>
-      <c r="J55" s="106"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="89"/>
     </row>
     <row r="56" spans="1:10" ht="31.2" customHeight="1">
       <c r="A56" s="57"/>
@@ -5143,41 +5148,41 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="43.2" customHeight="1">
-      <c r="A59" s="116" t="s">
+      <c r="A59" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="117"/>
+      <c r="B59" s="135"/>
       <c r="C59" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="116" t="s">
+      <c r="D59" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="117"/>
-      <c r="F59" s="118" t="s">
+      <c r="E59" s="135"/>
+      <c r="F59" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="G59" s="118"/>
-      <c r="H59" s="118"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
       <c r="I59" s="42"/>
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="116" t="s">
+      <c r="A60" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="117"/>
+      <c r="B60" s="135"/>
       <c r="C60" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="116" t="s">
+      <c r="D60" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="E60" s="117"/>
-      <c r="F60" s="124" t="s">
+      <c r="E60" s="135"/>
+      <c r="F60" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="G60" s="124"/>
+      <c r="G60" s="104"/>
       <c r="H60" s="40" t="s">
         <v>72</v>
       </c>
@@ -5199,10 +5204,10 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="92" t="s">
+      <c r="A62" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="93"/>
+      <c r="B62" s="132"/>
       <c r="C62" s="51" t="s">
         <v>75</v>
       </c>
@@ -5227,25 +5232,27 @@
       <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A64" s="94" t="s">
+      <c r="A64" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="93"/>
+      <c r="B64" s="132"/>
       <c r="C64" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="94" t="s">
+      <c r="D64" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="93"/>
-      <c r="F64" s="95" t="s">
+      <c r="E64" s="132"/>
+      <c r="F64" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="96"/>
+      <c r="G64" s="133"/>
       <c r="H64" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="I64" s="42"/>
+      <c r="I64" s="63" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="29"/>
@@ -5262,33 +5269,33 @@
       <c r="A66" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="97" t="s">
+      <c r="B66" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="31">
         <v>1</v>
       </c>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="31">
         <v>2</v>
       </c>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="42"/>
@@ -5306,15 +5313,15 @@
       <c r="A70" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="122" t="s">
+      <c r="B70" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="122"/>
-      <c r="D70" s="122" t="s">
+      <c r="C70" s="138"/>
+      <c r="D70" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="122"/>
-      <c r="F70" s="122"/>
+      <c r="E70" s="138"/>
+      <c r="F70" s="138"/>
       <c r="G70" s="42"/>
       <c r="H70" s="42"/>
       <c r="I70" s="42"/>
@@ -5324,15 +5331,15 @@
       <c r="A71" s="31">
         <v>1</v>
       </c>
-      <c r="B71" s="83" t="s">
+      <c r="B71" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="83"/>
-      <c r="D71" s="123" t="s">
+      <c r="C71" s="85"/>
+      <c r="D71" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="123"/>
-      <c r="F71" s="123"/>
+      <c r="E71" s="139"/>
+      <c r="F71" s="139"/>
       <c r="G71" s="42"/>
       <c r="H71" s="42"/>
       <c r="I71" s="42"/>
@@ -5342,15 +5349,15 @@
       <c r="A72" s="31">
         <v>2</v>
       </c>
-      <c r="B72" s="83" t="s">
+      <c r="B72" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="83"/>
-      <c r="D72" s="119">
+      <c r="C72" s="85"/>
+      <c r="D72" s="136">
         <v>1234</v>
       </c>
-      <c r="E72" s="119"/>
-      <c r="F72" s="119"/>
+      <c r="E72" s="136"/>
+      <c r="F72" s="136"/>
       <c r="G72" s="42"/>
       <c r="H72" s="42"/>
       <c r="I72" s="42"/>
@@ -5360,15 +5367,15 @@
       <c r="A73" s="31">
         <v>3</v>
       </c>
-      <c r="B73" s="98" t="s">
+      <c r="B73" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="99"/>
-      <c r="D73" s="98" t="s">
+      <c r="C73" s="121"/>
+      <c r="D73" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="100"/>
-      <c r="F73" s="99"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="121"/>
       <c r="G73" s="54"/>
       <c r="H73" s="54"/>
       <c r="I73" s="54"/>
@@ -5378,15 +5385,15 @@
       <c r="A74" s="31">
         <v>4</v>
       </c>
-      <c r="B74" s="98" t="s">
+      <c r="B74" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="C74" s="99"/>
-      <c r="D74" s="98" t="s">
+      <c r="C74" s="121"/>
+      <c r="D74" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="E74" s="100"/>
-      <c r="F74" s="99"/>
+      <c r="E74" s="120"/>
+      <c r="F74" s="121"/>
       <c r="G74" s="54"/>
       <c r="H74" s="54"/>
       <c r="I74" s="54"/>
@@ -5396,15 +5403,15 @@
       <c r="A75" s="31">
         <v>5</v>
       </c>
-      <c r="B75" s="83" t="s">
+      <c r="B75" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="119">
+      <c r="C75" s="85"/>
+      <c r="D75" s="136">
         <v>1234567890</v>
       </c>
-      <c r="E75" s="119"/>
-      <c r="F75" s="119"/>
+      <c r="E75" s="136"/>
+      <c r="F75" s="136"/>
       <c r="G75" s="42"/>
       <c r="H75" s="42"/>
       <c r="I75" s="42"/>
@@ -5412,21 +5419,21 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="33"/>
-      <c r="B76" s="120"/>
-      <c r="C76" s="120"/>
-      <c r="D76" s="120"/>
-      <c r="E76" s="120"/>
-      <c r="F76" s="120"/>
+      <c r="B76" s="137"/>
+      <c r="C76" s="137"/>
+      <c r="D76" s="137"/>
+      <c r="E76" s="137"/>
+      <c r="F76" s="137"/>
       <c r="G76" s="39"/>
       <c r="H76" s="39"/>
       <c r="I76" s="39"/>
       <c r="J76" s="39"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="121" t="s">
+      <c r="A77" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="121"/>
+      <c r="B77" s="122"/>
       <c r="C77" s="51" t="s">
         <v>134</v>
       </c>
@@ -5442,102 +5449,102 @@
       <c r="C78" s="33"/>
     </row>
     <row r="79" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A79" s="85" t="s">
+      <c r="A79" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="85" t="s">
+      <c r="B79" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="86"/>
-      <c r="D79" s="88" t="s">
+      <c r="C79" s="141"/>
+      <c r="D79" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="E79" s="89"/>
-      <c r="F79" s="91" t="s">
+      <c r="E79" s="144"/>
+      <c r="F79" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="G79" s="91"/>
-      <c r="H79" s="110" t="s">
+      <c r="G79" s="146"/>
+      <c r="H79" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="I79" s="111"/>
-      <c r="J79" s="112"/>
+      <c r="I79" s="95"/>
+      <c r="J79" s="96"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="86"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="113"/>
-      <c r="I80" s="114"/>
-      <c r="J80" s="115"/>
+      <c r="A80" s="141"/>
+      <c r="B80" s="142"/>
+      <c r="C80" s="142"/>
+      <c r="D80" s="145"/>
+      <c r="E80" s="145"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="146"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="98"/>
+      <c r="J80" s="99"/>
     </row>
     <row r="81" spans="1:10" ht="36.6" customHeight="1">
       <c r="A81" s="31">
         <v>1</v>
       </c>
-      <c r="B81" s="83" t="s">
+      <c r="B81" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="C81" s="84"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="83" t="s">
+      <c r="C81" s="86"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="G81" s="83"/>
-      <c r="H81" s="107" t="s">
+      <c r="G81" s="85"/>
+      <c r="H81" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="I81" s="109"/>
-      <c r="J81" s="108"/>
+      <c r="I81" s="92"/>
+      <c r="J81" s="93"/>
     </row>
     <row r="82" spans="1:10" ht="28.8" customHeight="1">
       <c r="A82" s="31">
         <v>2</v>
       </c>
-      <c r="B82" s="83" t="s">
+      <c r="B82" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="83" t="s">
+      <c r="C82" s="86"/>
+      <c r="D82" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83" t="s">
+      <c r="E82" s="85"/>
+      <c r="F82" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="G82" s="83"/>
-      <c r="H82" s="107" t="s">
+      <c r="G82" s="85"/>
+      <c r="H82" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="I82" s="109"/>
-      <c r="J82" s="108"/>
+      <c r="I82" s="92"/>
+      <c r="J82" s="93"/>
     </row>
     <row r="83" spans="1:10" ht="30" customHeight="1">
       <c r="A83" s="31">
         <v>3</v>
       </c>
-      <c r="B83" s="83" t="s">
+      <c r="B83" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="83" t="s">
+      <c r="C83" s="86"/>
+      <c r="D83" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83" t="s">
+      <c r="E83" s="85"/>
+      <c r="F83" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="G83" s="83"/>
-      <c r="H83" s="107" t="s">
+      <c r="G83" s="85"/>
+      <c r="H83" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="I83" s="109"/>
-      <c r="J83" s="108"/>
+      <c r="I83" s="92"/>
+      <c r="J83" s="93"/>
     </row>
     <row r="84" spans="1:10" ht="30" customHeight="1">
       <c r="A84" s="24" t="s">
@@ -5545,41 +5552,41 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A85" s="116" t="s">
+      <c r="A85" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B85" s="117"/>
+      <c r="B85" s="135"/>
       <c r="C85" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="116" t="s">
+      <c r="D85" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E85" s="117"/>
-      <c r="F85" s="118" t="s">
+      <c r="E85" s="135"/>
+      <c r="F85" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="G85" s="118"/>
-      <c r="H85" s="118"/>
-      <c r="I85" s="118"/>
-      <c r="J85" s="118"/>
+      <c r="G85" s="90"/>
+      <c r="H85" s="90"/>
+      <c r="I85" s="90"/>
+      <c r="J85" s="90"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="116" t="s">
+      <c r="A86" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="B86" s="117"/>
+      <c r="B86" s="135"/>
       <c r="C86" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="116" t="s">
+      <c r="D86" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="E86" s="117"/>
-      <c r="F86" s="124" t="s">
+      <c r="E86" s="135"/>
+      <c r="F86" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="124"/>
+      <c r="G86" s="104"/>
       <c r="H86" s="53" t="s">
         <v>72</v>
       </c>
@@ -5601,10 +5608,10 @@
       <c r="J87" s="54"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="92" t="s">
+      <c r="A88" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B88" s="93"/>
+      <c r="B88" s="132"/>
       <c r="C88" s="51" t="s">
         <v>75</v>
       </c>
@@ -5629,22 +5636,22 @@
       <c r="J89" s="54"/>
     </row>
     <row r="90" spans="1:10" ht="42" customHeight="1">
-      <c r="A90" s="94" t="s">
+      <c r="A90" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B90" s="93"/>
+      <c r="B90" s="132"/>
       <c r="C90" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="94" t="s">
+      <c r="D90" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="E90" s="93"/>
-      <c r="F90" s="95" t="s">
+      <c r="E90" s="132"/>
+      <c r="F90" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="G90" s="96"/>
-      <c r="H90" s="145" t="s">
+      <c r="G90" s="133"/>
+      <c r="H90" s="64" t="s">
         <v>80</v>
       </c>
       <c r="I90" s="54" t="s">
@@ -5666,33 +5673,33 @@
       <c r="A92" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="97" t="s">
+      <c r="B92" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="97"/>
-      <c r="D92" s="97"/>
-      <c r="E92" s="97"/>
-      <c r="F92" s="97"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="134"/>
+      <c r="E92" s="134"/>
+      <c r="F92" s="134"/>
     </row>
     <row r="93" spans="1:10" ht="14.4" customHeight="1">
       <c r="A93" s="31">
         <v>1</v>
       </c>
-      <c r="B93" s="83"/>
-      <c r="C93" s="83"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="31">
         <v>2</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="54"/>
@@ -5710,15 +5717,15 @@
       <c r="A96" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="122" t="s">
+      <c r="B96" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="122"/>
-      <c r="D96" s="122" t="s">
+      <c r="C96" s="138"/>
+      <c r="D96" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="E96" s="122"/>
-      <c r="F96" s="122"/>
+      <c r="E96" s="138"/>
+      <c r="F96" s="138"/>
       <c r="G96" s="54"/>
       <c r="H96" s="54"/>
       <c r="I96" s="54"/>
@@ -5728,15 +5735,15 @@
       <c r="A97" s="31">
         <v>1</v>
       </c>
-      <c r="B97" s="83" t="s">
+      <c r="B97" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="83"/>
-      <c r="D97" s="123" t="s">
+      <c r="C97" s="85"/>
+      <c r="D97" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="E97" s="123"/>
-      <c r="F97" s="123"/>
+      <c r="E97" s="139"/>
+      <c r="F97" s="139"/>
       <c r="G97" s="54"/>
       <c r="H97" s="54"/>
       <c r="I97" s="54"/>
@@ -5746,15 +5753,15 @@
       <c r="A98" s="31">
         <v>2</v>
       </c>
-      <c r="B98" s="83" t="s">
+      <c r="B98" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C98" s="83"/>
-      <c r="D98" s="119" t="s">
+      <c r="C98" s="85"/>
+      <c r="D98" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="E98" s="119"/>
-      <c r="F98" s="119"/>
+      <c r="E98" s="136"/>
+      <c r="F98" s="136"/>
       <c r="G98" s="54"/>
       <c r="H98" s="54"/>
       <c r="I98" s="54"/>
@@ -5764,15 +5771,15 @@
       <c r="A99" s="31">
         <v>3</v>
       </c>
-      <c r="B99" s="98" t="s">
+      <c r="B99" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="99"/>
-      <c r="D99" s="98" t="s">
+      <c r="C99" s="121"/>
+      <c r="D99" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="E99" s="100"/>
-      <c r="F99" s="99"/>
+      <c r="E99" s="120"/>
+      <c r="F99" s="121"/>
       <c r="G99" s="54"/>
       <c r="H99" s="54"/>
       <c r="I99" s="54"/>
@@ -5782,15 +5789,15 @@
       <c r="A100" s="31">
         <v>4</v>
       </c>
-      <c r="B100" s="98" t="s">
+      <c r="B100" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="99"/>
-      <c r="D100" s="98" t="s">
+      <c r="C100" s="121"/>
+      <c r="D100" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="E100" s="100"/>
-      <c r="F100" s="99"/>
+      <c r="E100" s="120"/>
+      <c r="F100" s="121"/>
       <c r="G100" s="54"/>
       <c r="H100" s="54"/>
       <c r="I100" s="54"/>
@@ -5798,21 +5805,21 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="33"/>
-      <c r="B101" s="120"/>
-      <c r="C101" s="120"/>
-      <c r="D101" s="120"/>
-      <c r="E101" s="120"/>
-      <c r="F101" s="120"/>
+      <c r="B101" s="137"/>
+      <c r="C101" s="137"/>
+      <c r="D101" s="137"/>
+      <c r="E101" s="137"/>
+      <c r="F101" s="137"/>
       <c r="G101" s="51"/>
       <c r="H101" s="51"/>
       <c r="I101" s="51"/>
       <c r="J101" s="51"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="121" t="s">
+      <c r="A102" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="B102" s="121"/>
+      <c r="B102" s="122"/>
       <c r="C102" s="51" t="s">
         <v>134</v>
       </c>
@@ -5828,142 +5835,209 @@
       <c r="C103" s="33"/>
     </row>
     <row r="104" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A104" s="85" t="s">
+      <c r="A104" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="B104" s="85" t="s">
+      <c r="B104" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="C104" s="86"/>
-      <c r="D104" s="88" t="s">
+      <c r="C104" s="141"/>
+      <c r="D104" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="E104" s="89"/>
-      <c r="F104" s="91" t="s">
+      <c r="E104" s="144"/>
+      <c r="F104" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="G104" s="91"/>
-      <c r="H104" s="110" t="s">
+      <c r="G104" s="146"/>
+      <c r="H104" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="I104" s="111"/>
-      <c r="J104" s="112"/>
+      <c r="I104" s="95"/>
+      <c r="J104" s="96"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="86"/>
-      <c r="B105" s="87"/>
-      <c r="C105" s="87"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="90"/>
-      <c r="F105" s="91"/>
-      <c r="G105" s="91"/>
-      <c r="H105" s="113"/>
-      <c r="I105" s="114"/>
-      <c r="J105" s="115"/>
+      <c r="A105" s="141"/>
+      <c r="B105" s="142"/>
+      <c r="C105" s="142"/>
+      <c r="D105" s="145"/>
+      <c r="E105" s="145"/>
+      <c r="F105" s="146"/>
+      <c r="G105" s="146"/>
+      <c r="H105" s="97"/>
+      <c r="I105" s="98"/>
+      <c r="J105" s="99"/>
     </row>
     <row r="106" spans="1:10" ht="43.8" customHeight="1">
       <c r="A106" s="31">
         <v>1</v>
       </c>
-      <c r="B106" s="83" t="s">
+      <c r="B106" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="C106" s="84"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83" t="s">
+      <c r="C106" s="86"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
+      <c r="F106" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="G106" s="83"/>
-      <c r="H106" s="107" t="s">
+      <c r="G106" s="85"/>
+      <c r="H106" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="I106" s="109"/>
-      <c r="J106" s="108"/>
+      <c r="I106" s="92"/>
+      <c r="J106" s="93"/>
     </row>
     <row r="107" spans="1:10" ht="49.8" customHeight="1">
       <c r="A107" s="31">
         <v>2</v>
       </c>
-      <c r="B107" s="83" t="s">
+      <c r="B107" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="C107" s="84"/>
-      <c r="D107" s="83" t="s">
+      <c r="C107" s="86"/>
+      <c r="D107" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83" t="s">
+      <c r="E107" s="85"/>
+      <c r="F107" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="G107" s="83"/>
-      <c r="H107" s="107" t="s">
+      <c r="G107" s="85"/>
+      <c r="H107" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="I107" s="109"/>
-      <c r="J107" s="108"/>
+      <c r="I107" s="92"/>
+      <c r="J107" s="93"/>
     </row>
     <row r="108" spans="1:10" ht="35.4" customHeight="1">
       <c r="A108" s="31">
         <v>3</v>
       </c>
-      <c r="B108" s="83" t="s">
+      <c r="B108" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="84"/>
-      <c r="D108" s="83" t="s">
+      <c r="C108" s="86"/>
+      <c r="D108" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83" t="s">
+      <c r="E108" s="85"/>
+      <c r="F108" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="G108" s="83"/>
-      <c r="H108" s="107" t="s">
+      <c r="G108" s="85"/>
+      <c r="H108" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="I108" s="109"/>
-      <c r="J108" s="108"/>
+      <c r="I108" s="92"/>
+      <c r="J108" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H104:J105"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:C105"/>
+    <mergeCell ref="D104:E105"/>
+    <mergeCell ref="F104:G105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="H51:J52"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="H79:J80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="D79:E80"/>
+    <mergeCell ref="F79:G80"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="F51:G52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
@@ -5987,23 +6061,43 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="F51:G52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H104:J105"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H82:J82"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="D64:E64"/>
@@ -6017,93 +6111,6 @@
     <mergeCell ref="F59:H59"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:F72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="H79:J80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="D79:E80"/>
-    <mergeCell ref="F79:G80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="H51:J52"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:C105"/>
-    <mergeCell ref="D104:E105"/>
-    <mergeCell ref="F104:G105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
   </mergeCells>
   <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6120,6 +6127,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100022953E05853314FA00939512CAC603E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="826dfc53024fa0b8cb8a6029e43f3d57">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c47d0959-82c4-435d-8c2e-35cc2bfaddf6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5069b76ede0f6507a83d83ef06308c88" ns2:_="">
     <xsd:import namespace="c47d0959-82c4-435d-8c2e-35cc2bfaddf6"/>
@@ -6251,12 +6264,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
   <ds:schemaRefs>
@@ -6266,6 +6273,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFBCA0A6-4314-473B-8466-8D40344A4A38}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6281,13 +6297,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>